--- a/static/documentos/reporte_17.xlsx
+++ b/static/documentos/reporte_17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.fonseca\PycharmProjects\uni2data\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25A052-7462-4FAD-AC9E-3B5C5FD76DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5CD98C-36EB-4F70-9BBE-95983C915E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -770,9 +770,6 @@
     </r>
   </si>
   <si>
-    <t>Código SION:</t>
-  </si>
-  <si>
     <t>Coordinador administrativo</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Cargue:</t>
+  </si>
+  <si>
+    <t>Código:</t>
   </si>
 </sst>
 </file>
@@ -1858,9 +1858,210 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,212 +2095,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2388,7 +2388,7 @@
   <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,219 +2412,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="111" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="113"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="109" t="s">
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="118"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="122"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124" t="s">
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="120"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="142" t="s">
+      <c r="F6" s="123"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="144"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="145" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="123"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
+    </row>
+    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="130"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="132"/>
+      <c r="J8" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
-    </row>
-    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="131"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="143"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92" t="s">
+      <c r="F10" s="103"/>
+      <c r="G10" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="J10" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="94" t="s">
+      <c r="K10" s="103"/>
+      <c r="L10" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="86"/>
-      <c r="O10" s="79" t="s">
+      <c r="N10" s="153"/>
+      <c r="O10" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="80"/>
+      <c r="P10" s="147"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="95"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="141"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="149"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2632,18 +2632,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2651,8 +2651,8 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
@@ -2661,8 +2661,8 @@
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2670,8 +2670,8 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
@@ -2680,8 +2680,8 @@
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36">
@@ -2689,8 +2689,8 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="44"/>
@@ -2699,8 +2699,8 @@
       <c r="L15" s="41"/>
       <c r="M15" s="45"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
     </row>
     <row r="16" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -2708,8 +2708,8 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="44"/>
@@ -2718,8 +2718,8 @@
       <c r="L16" s="41"/>
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="85"/>
     </row>
     <row r="17" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
@@ -2727,8 +2727,8 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="44"/>
@@ -2737,8 +2737,8 @@
       <c r="L17" s="41"/>
       <c r="M17" s="45"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
@@ -2746,8 +2746,8 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="44"/>
@@ -2756,8 +2756,8 @@
       <c r="L18" s="41"/>
       <c r="M18" s="45"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="85"/>
     </row>
     <row r="19" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
@@ -2765,8 +2765,8 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="44"/>
@@ -2775,8 +2775,8 @@
       <c r="L19" s="41"/>
       <c r="M19" s="45"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85"/>
     </row>
     <row r="20" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
@@ -2784,8 +2784,8 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="44"/>
@@ -2794,8 +2794,8 @@
       <c r="L20" s="41"/>
       <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="85"/>
     </row>
     <row r="21" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
@@ -2803,8 +2803,8 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="44"/>
@@ -2813,8 +2813,8 @@
       <c r="L21" s="41"/>
       <c r="M21" s="45"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="85"/>
     </row>
     <row r="22" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
@@ -2822,8 +2822,8 @@
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="44"/>
@@ -2832,8 +2832,8 @@
       <c r="L22" s="41"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="85"/>
     </row>
     <row r="23" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
@@ -2841,8 +2841,8 @@
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="44"/>
@@ -2851,8 +2851,8 @@
       <c r="L23" s="41"/>
       <c r="M23" s="45"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="88"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="85"/>
     </row>
     <row r="24" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
@@ -2860,8 +2860,8 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="44"/>
@@ -2870,8 +2870,8 @@
       <c r="L24" s="41"/>
       <c r="M24" s="45"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85"/>
     </row>
     <row r="25" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
@@ -2879,8 +2879,8 @@
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="44"/>
@@ -2889,8 +2889,8 @@
       <c r="L25" s="41"/>
       <c r="M25" s="45"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
     </row>
     <row r="26" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36">
@@ -2898,8 +2898,8 @@
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="44"/>
@@ -2908,8 +2908,8 @@
       <c r="L26" s="41"/>
       <c r="M26" s="45"/>
       <c r="N26" s="46"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="85"/>
     </row>
     <row r="27" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
@@ -2917,8 +2917,8 @@
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="44"/>
@@ -2927,8 +2927,8 @@
       <c r="L27" s="47"/>
       <c r="M27" s="45"/>
       <c r="N27" s="46"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="85"/>
     </row>
     <row r="28" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
@@ -2936,26 +2936,26 @@
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
       <c r="I28" s="52"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
       <c r="L28" s="48"/>
       <c r="M28" s="49"/>
       <c r="N28" s="50"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="155"/>
     </row>
     <row r="29" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
       <c r="L29" s="26">
         <f>SUM(L12:L28)</f>
         <v>0</v>
@@ -2969,13 +2969,13 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
@@ -3000,12 +3000,12 @@
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
       <c r="L32" s="59"/>
-      <c r="M32" s="150" t="s">
+      <c r="M32" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="77" t="s">
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="144" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3021,10 +3021,10 @@
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="78"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="145"/>
     </row>
     <row r="34" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B34" s="60"/>
@@ -3038,10 +3038,10 @@
       <c r="J34" s="65"/>
       <c r="K34" s="65"/>
       <c r="L34" s="66"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="78"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="145"/>
     </row>
     <row r="35" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="60"/>
@@ -3055,37 +3055,37 @@
       <c r="J35" s="65"/>
       <c r="K35" s="65"/>
       <c r="L35" s="66"/>
-      <c r="M35" s="152" t="s">
+      <c r="M35" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="N35" s="153"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="148" t="s">
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="86" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="139" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="139" t="s">
-        <v>237</v>
-      </c>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="148"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="86"/>
     </row>
     <row r="37" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="69"/>
@@ -3099,10 +3099,10 @@
       <c r="J37" s="73"/>
       <c r="K37" s="73"/>
       <c r="L37" s="74"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="149"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3113,6 +3113,80 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="90">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B1:D8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:K29"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:L36"/>
@@ -3129,80 +3203,6 @@
     <mergeCell ref="P35:P37"/>
     <mergeCell ref="M32:O34"/>
     <mergeCell ref="M35:O37"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B1:D8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
